--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="179">
   <si>
     <t>Process</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>typical</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
   <si>
     <t>tsmc2p (1)</t>
@@ -1029,51 +1032,51 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>350.659</v>
+        <v>349.628</v>
       </c>
       <c r="S2">
-        <v>0.658632</v>
+        <v>-0.371939</v>
       </c>
       <c r="T2">
-        <v>0.658632</v>
-      </c>
-      <c r="U2">
-        <v>343.809</v>
+        <v>-0.371939</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -1091,54 +1094,54 @@
         <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -1156,54 +1159,54 @@
         <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -1221,119 +1224,119 @@
         <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R5">
-        <v>315.686</v>
+        <v>314.555</v>
       </c>
       <c r="S5">
-        <v>0.685768</v>
+        <v>-0.44543</v>
       </c>
       <c r="T5">
-        <v>0.685768</v>
-      </c>
-      <c r="U5">
-        <v>302.408</v>
+        <v>-0.44543</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
       <c r="R6">
-        <v>323.025</v>
+        <v>314.882</v>
       </c>
       <c r="S6">
-        <v>8.02529</v>
+        <v>-0.118</v>
       </c>
       <c r="T6">
-        <v>8.02529</v>
-      </c>
-      <c r="U6">
-        <v>175.871</v>
+        <v>-0.118</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -1351,54 +1354,54 @@
         <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -1416,54 +1419,54 @@
         <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -1481,54 +1484,54 @@
         <v>35</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -1546,54 +1549,54 @@
         <v>35</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -1611,54 +1614,54 @@
         <v>35</v>
       </c>
       <c r="Q11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -1676,54 +1679,54 @@
         <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -1741,54 +1744,54 @@
         <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -1806,54 +1809,54 @@
         <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -1871,54 +1874,54 @@
         <v>35</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -1936,54 +1939,54 @@
         <v>35</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -2001,54 +2004,54 @@
         <v>35</v>
       </c>
       <c r="Q17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -2066,54 +2069,54 @@
         <v>35</v>
       </c>
       <c r="Q18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -2131,54 +2134,54 @@
         <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -2196,54 +2199,54 @@
         <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -2261,54 +2264,54 @@
         <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -2326,54 +2329,54 @@
         <v>35</v>
       </c>
       <c r="Q22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -2391,54 +2394,54 @@
         <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -2456,54 +2459,54 @@
         <v>35</v>
       </c>
       <c r="Q24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -2521,54 +2524,54 @@
         <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -2586,54 +2589,54 @@
         <v>35</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -2651,54 +2654,54 @@
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -2716,54 +2719,54 @@
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
@@ -2781,54 +2784,54 @@
         <v>35</v>
       </c>
       <c r="Q29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -2846,54 +2849,54 @@
         <v>35</v>
       </c>
       <c r="Q30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -2911,54 +2914,54 @@
         <v>35</v>
       </c>
       <c r="Q31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
@@ -2976,54 +2979,54 @@
         <v>35</v>
       </c>
       <c r="Q32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
@@ -3041,54 +3044,54 @@
         <v>35</v>
       </c>
       <c r="Q33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
@@ -3106,54 +3109,54 @@
         <v>35</v>
       </c>
       <c r="Q34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
@@ -3171,54 +3174,54 @@
         <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -3236,54 +3239,54 @@
         <v>35</v>
       </c>
       <c r="Q36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -3301,54 +3304,54 @@
         <v>35</v>
       </c>
       <c r="Q37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s">
         <v>32</v>
@@ -3366,54 +3369,54 @@
         <v>35</v>
       </c>
       <c r="Q38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
@@ -3431,54 +3434,54 @@
         <v>35</v>
       </c>
       <c r="Q39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
@@ -3496,54 +3499,54 @@
         <v>35</v>
       </c>
       <c r="Q40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
@@ -3561,54 +3564,54 @@
         <v>35</v>
       </c>
       <c r="Q41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
@@ -3626,54 +3629,54 @@
         <v>35</v>
       </c>
       <c r="Q42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
@@ -3691,54 +3694,54 @@
         <v>35</v>
       </c>
       <c r="Q43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
@@ -3756,54 +3759,54 @@
         <v>35</v>
       </c>
       <c r="Q44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
@@ -3821,54 +3824,54 @@
         <v>35</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
@@ -3886,54 +3889,54 @@
         <v>35</v>
       </c>
       <c r="Q46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
@@ -3951,54 +3954,54 @@
         <v>35</v>
       </c>
       <c r="Q47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
@@ -4016,54 +4019,54 @@
         <v>35</v>
       </c>
       <c r="Q48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
@@ -4081,54 +4084,54 @@
         <v>35</v>
       </c>
       <c r="Q49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -4146,54 +4149,54 @@
         <v>35</v>
       </c>
       <c r="Q50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s">
         <v>32</v>
@@ -4211,54 +4214,54 @@
         <v>35</v>
       </c>
       <c r="Q51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L52" t="s">
         <v>32</v>
@@ -4276,24 +4279,24 @@
         <v>35</v>
       </c>
       <c r="Q52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -4344,51 +4347,51 @@
         <v>36</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
         <v>32</v>
@@ -4406,54 +4409,54 @@
         <v>35</v>
       </c>
       <c r="Q54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
@@ -4471,54 +4474,54 @@
         <v>35</v>
       </c>
       <c r="Q55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
@@ -4536,54 +4539,54 @@
         <v>35</v>
       </c>
       <c r="Q56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -4601,54 +4604,54 @@
         <v>35</v>
       </c>
       <c r="Q57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -4666,54 +4669,54 @@
         <v>35</v>
       </c>
       <c r="Q58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
@@ -4731,54 +4734,54 @@
         <v>35</v>
       </c>
       <c r="Q59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -4796,54 +4799,54 @@
         <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
@@ -4861,54 +4864,54 @@
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
@@ -4926,54 +4929,54 @@
         <v>35</v>
       </c>
       <c r="Q62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
@@ -4991,54 +4994,54 @@
         <v>35</v>
       </c>
       <c r="Q63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
@@ -5056,54 +5059,54 @@
         <v>35</v>
       </c>
       <c r="Q64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
@@ -5121,54 +5124,54 @@
         <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
@@ -5186,54 +5189,54 @@
         <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
@@ -5251,54 +5254,54 @@
         <v>35</v>
       </c>
       <c r="Q67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
@@ -5316,54 +5319,54 @@
         <v>35</v>
       </c>
       <c r="Q68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -5381,54 +5384,54 @@
         <v>35</v>
       </c>
       <c r="Q69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s">
         <v>32</v>
@@ -5446,54 +5449,54 @@
         <v>35</v>
       </c>
       <c r="Q70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L71" t="s">
         <v>32</v>
@@ -5511,54 +5514,54 @@
         <v>35</v>
       </c>
       <c r="Q71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L72" t="s">
         <v>32</v>
@@ -5576,54 +5579,54 @@
         <v>35</v>
       </c>
       <c r="Q72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L73" t="s">
         <v>32</v>
@@ -5641,54 +5644,54 @@
         <v>35</v>
       </c>
       <c r="Q73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L74" t="s">
         <v>32</v>
@@ -5706,54 +5709,54 @@
         <v>35</v>
       </c>
       <c r="Q74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
@@ -5771,54 +5774,54 @@
         <v>35</v>
       </c>
       <c r="Q75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L76" t="s">
         <v>32</v>
@@ -5836,54 +5839,54 @@
         <v>35</v>
       </c>
       <c r="Q76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L77" t="s">
         <v>32</v>
@@ -5901,54 +5904,54 @@
         <v>35</v>
       </c>
       <c r="Q77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L78" t="s">
         <v>32</v>
@@ -5966,54 +5969,54 @@
         <v>35</v>
       </c>
       <c r="Q78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L79" t="s">
         <v>32</v>
@@ -6031,54 +6034,54 @@
         <v>35</v>
       </c>
       <c r="Q79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L80" t="s">
         <v>32</v>
@@ -6096,54 +6099,54 @@
         <v>35</v>
       </c>
       <c r="Q80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L81" t="s">
         <v>32</v>
@@ -6161,54 +6164,54 @@
         <v>35</v>
       </c>
       <c r="Q81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L82" t="s">
         <v>32</v>
@@ -6226,54 +6229,54 @@
         <v>35</v>
       </c>
       <c r="Q82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L83" t="s">
         <v>32</v>
@@ -6291,54 +6294,54 @@
         <v>35</v>
       </c>
       <c r="Q83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L84" t="s">
         <v>32</v>
@@ -6356,54 +6359,54 @@
         <v>35</v>
       </c>
       <c r="Q84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s">
         <v>32</v>
@@ -6421,54 +6424,54 @@
         <v>35</v>
       </c>
       <c r="Q85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L86" t="s">
         <v>32</v>
@@ -6486,54 +6489,54 @@
         <v>35</v>
       </c>
       <c r="Q86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L87" t="s">
         <v>32</v>
@@ -6551,54 +6554,54 @@
         <v>35</v>
       </c>
       <c r="Q87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L88" t="s">
         <v>32</v>
@@ -6616,54 +6619,54 @@
         <v>35</v>
       </c>
       <c r="Q88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
@@ -6681,54 +6684,54 @@
         <v>35</v>
       </c>
       <c r="Q89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L90" t="s">
         <v>32</v>
@@ -6746,54 +6749,54 @@
         <v>35</v>
       </c>
       <c r="Q90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L91" t="s">
         <v>32</v>
@@ -6811,54 +6814,54 @@
         <v>35</v>
       </c>
       <c r="Q91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
@@ -6876,54 +6879,54 @@
         <v>35</v>
       </c>
       <c r="Q92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L93" t="s">
         <v>32</v>
@@ -6941,54 +6944,54 @@
         <v>35</v>
       </c>
       <c r="Q93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L94" t="s">
         <v>32</v>
@@ -7006,54 +7009,54 @@
         <v>35</v>
       </c>
       <c r="Q94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L95" t="s">
         <v>32</v>
@@ -7071,54 +7074,54 @@
         <v>35</v>
       </c>
       <c r="Q95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L96" t="s">
         <v>32</v>
@@ -7136,54 +7139,54 @@
         <v>35</v>
       </c>
       <c r="Q96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -7201,54 +7204,54 @@
         <v>35</v>
       </c>
       <c r="Q97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -7266,54 +7269,54 @@
         <v>35</v>
       </c>
       <c r="Q98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L99" t="s">
         <v>32</v>
@@ -7331,54 +7334,54 @@
         <v>35</v>
       </c>
       <c r="Q99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L100" t="s">
         <v>32</v>
@@ -7396,54 +7399,54 @@
         <v>35</v>
       </c>
       <c r="Q100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
@@ -7461,54 +7464,54 @@
         <v>35</v>
       </c>
       <c r="Q101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L102" t="s">
         <v>32</v>
@@ -7526,54 +7529,54 @@
         <v>35</v>
       </c>
       <c r="Q102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L103" t="s">
         <v>32</v>
@@ -7591,19 +7594,19 @@
         <v>35</v>
       </c>
       <c r="Q103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="1" customFormat="1">
@@ -7673,107 +7676,107 @@
     </row>
     <row r="105" spans="1:21" s="1" customFormat="1">
       <c r="Q105" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R105" s="1">
-        <v>315.686</v>
+        <v>314.555</v>
       </c>
       <c r="S105" s="1">
-        <v>0.658632</v>
+        <v>-0.44543</v>
       </c>
       <c r="T105" s="1">
-        <v>0.658632</v>
-      </c>
-      <c r="U105" s="1">
-        <v>175.871</v>
+        <v>-0.44543</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="1" customFormat="1">
       <c r="Q106" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R106" s="1">
-        <v>350.659</v>
+        <v>349.628</v>
       </c>
       <c r="S106" s="1">
-        <v>8.02529</v>
+        <v>-0.118</v>
       </c>
       <c r="T106" s="1">
-        <v>8.02529</v>
-      </c>
-      <c r="U106" s="1">
-        <v>343.809</v>
+        <v>-0.118</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="1" customFormat="1">
       <c r="Q107" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:21" s="1" customFormat="1">
       <c r="Q108" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="1" customFormat="1">
       <c r="Q109" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:21" s="1" customFormat="1">
       <c r="Q110" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="1" customFormat="1">
       <c r="Q111" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R111" s="1">
-        <v>329.79</v>
+        <v>326.355</v>
       </c>
       <c r="S111" s="1">
-        <v>3.12323</v>
+        <v>-0.3117897</v>
       </c>
       <c r="T111" s="1">
-        <v>3.12323</v>
-      </c>
-      <c r="U111" s="1">
-        <v>274.0293</v>
+        <v>-0.3117897</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:21" s="1" customFormat="1">
       <c r="Q112" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R112" s="1">
-        <v>15.057702</v>
+        <v>16.457038</v>
       </c>
       <c r="S112" s="1">
-        <v>3.466298</v>
+        <v>0.140276</v>
       </c>
       <c r="T112" s="1">
-        <v>3.466298</v>
-      </c>
-      <c r="U112" s="1">
-        <v>71.436706</v>
+        <v>0.140276</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="17:21" s="1" customFormat="1">
       <c r="Q113" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R113" s="1">
-        <v>4.565846</v>
+        <v>5.04268</v>
       </c>
       <c r="S113" s="1">
-        <v>110.984398</v>
+        <v>44.990582</v>
       </c>
       <c r="T113" s="1">
-        <v>110.984398</v>
-      </c>
-      <c r="U113" s="1">
-        <v>26.069003</v>
+        <v>44.990582</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="17:21" s="1" customFormat="1"/>

--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -1032,13 +1032,13 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>349.628</v>
+        <v>250.514</v>
       </c>
       <c r="S2">
-        <v>-0.371939</v>
+        <v>-99.48650000000001</v>
       </c>
       <c r="T2">
-        <v>-0.371939</v>
+        <v>-0.513522</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>37</v>
@@ -1227,13 +1227,13 @@
         <v>63</v>
       </c>
       <c r="R5">
-        <v>314.555</v>
+        <v>250.743</v>
       </c>
       <c r="S5">
-        <v>-0.44543</v>
+        <v>-64.2572</v>
       </c>
       <c r="T5">
-        <v>-0.44543</v>
+        <v>-0.742795</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>37</v>
@@ -1292,13 +1292,13 @@
         <v>63</v>
       </c>
       <c r="R6">
-        <v>314.882</v>
+        <v>267.523</v>
       </c>
       <c r="S6">
-        <v>-0.118</v>
+        <v>-47.4774</v>
       </c>
       <c r="T6">
-        <v>-0.118</v>
+        <v>-17.5226</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>37</v>
@@ -7679,13 +7679,13 @@
         <v>170</v>
       </c>
       <c r="R105" s="1">
-        <v>314.555</v>
+        <v>250.514</v>
       </c>
       <c r="S105" s="1">
-        <v>-0.44543</v>
+        <v>-99.48650000000001</v>
       </c>
       <c r="T105" s="1">
-        <v>-0.44543</v>
+        <v>-17.5226</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>50</v>
@@ -7696,13 +7696,13 @@
         <v>171</v>
       </c>
       <c r="R106" s="1">
-        <v>349.628</v>
+        <v>267.523</v>
       </c>
       <c r="S106" s="1">
-        <v>-0.118</v>
+        <v>-47.4774</v>
       </c>
       <c r="T106" s="1">
-        <v>-0.118</v>
+        <v>-0.513522</v>
       </c>
       <c r="U106" s="1" t="s">
         <v>50</v>
@@ -7733,13 +7733,13 @@
         <v>176</v>
       </c>
       <c r="R111" s="1">
-        <v>326.355</v>
+        <v>256.26</v>
       </c>
       <c r="S111" s="1">
-        <v>-0.3117897</v>
+        <v>-70.40703000000001</v>
       </c>
       <c r="T111" s="1">
-        <v>-0.3117897</v>
+        <v>-6.259639</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>50</v>
@@ -7750,13 +7750,13 @@
         <v>177</v>
       </c>
       <c r="R112" s="1">
-        <v>16.457038</v>
+        <v>7.964692</v>
       </c>
       <c r="S112" s="1">
-        <v>0.140276</v>
+        <v>21.673362</v>
       </c>
       <c r="T112" s="1">
-        <v>0.140276</v>
+        <v>7.964666</v>
       </c>
       <c r="U112" s="1" t="s">
         <v>50</v>
@@ -7767,13 +7767,13 @@
         <v>178</v>
       </c>
       <c r="R113" s="1">
-        <v>5.04268</v>
+        <v>3.108051</v>
       </c>
       <c r="S113" s="1">
-        <v>44.990582</v>
+        <v>30.782952</v>
       </c>
       <c r="T113" s="1">
-        <v>44.990582</v>
+        <v>127.238424</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>50</v>

--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="233">
   <si>
     <t>Process</t>
   </si>
@@ -106,7 +106,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>0.45</t>
+    <t>0.42</t>
   </si>
   <si>
     <t>0.70</t>
@@ -157,7 +157,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>0.473</t>
+    <t>0.441</t>
   </si>
   <si>
     <t>0.77</t>
@@ -199,7 +199,7 @@
     <t>cap_h</t>
   </si>
   <si>
-    <t>0.414</t>
+    <t>0.386</t>
   </si>
   <si>
     <t>0.63</t>
@@ -376,15 +376,24 @@
     <t>tsmc2p (51)</t>
   </si>
   <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>tsmc2p (52)</t>
   </si>
   <si>
+    <t>0.848</t>
+  </si>
+  <si>
     <t>tsmc2p (53)</t>
   </si>
   <si>
     <t>tsmc2p (54)</t>
   </si>
   <si>
+    <t>0.736</t>
+  </si>
+  <si>
     <t>tsmc2p (55)</t>
   </si>
   <si>
@@ -524,6 +533,159 @@
   </si>
   <si>
     <t>tsmc2p (101)</t>
+  </si>
+  <si>
+    <t>tsmc2p (102)</t>
+  </si>
+  <si>
+    <t>tsmc2p (103)</t>
+  </si>
+  <si>
+    <t>tsmc2p (104)</t>
+  </si>
+  <si>
+    <t>tsmc2p (105)</t>
+  </si>
+  <si>
+    <t>tsmc2p (106)</t>
+  </si>
+  <si>
+    <t>tsmc2p (107)</t>
+  </si>
+  <si>
+    <t>tsmc2p (108)</t>
+  </si>
+  <si>
+    <t>tsmc2p (109)</t>
+  </si>
+  <si>
+    <t>tsmc2p (110)</t>
+  </si>
+  <si>
+    <t>tsmc2p (111)</t>
+  </si>
+  <si>
+    <t>tsmc2p (112)</t>
+  </si>
+  <si>
+    <t>tsmc2p (113)</t>
+  </si>
+  <si>
+    <t>tsmc2p (114)</t>
+  </si>
+  <si>
+    <t>tsmc2p (115)</t>
+  </si>
+  <si>
+    <t>tsmc2p (116)</t>
+  </si>
+  <si>
+    <t>tsmc2p (117)</t>
+  </si>
+  <si>
+    <t>tsmc2p (118)</t>
+  </si>
+  <si>
+    <t>tsmc2p (119)</t>
+  </si>
+  <si>
+    <t>tsmc2p (120)</t>
+  </si>
+  <si>
+    <t>tsmc2p (121)</t>
+  </si>
+  <si>
+    <t>tsmc2p (122)</t>
+  </si>
+  <si>
+    <t>tsmc2p (123)</t>
+  </si>
+  <si>
+    <t>tsmc2p (124)</t>
+  </si>
+  <si>
+    <t>tsmc2p (125)</t>
+  </si>
+  <si>
+    <t>tsmc2p (126)</t>
+  </si>
+  <si>
+    <t>tsmc2p (127)</t>
+  </si>
+  <si>
+    <t>tsmc2p (128)</t>
+  </si>
+  <si>
+    <t>tsmc2p (129)</t>
+  </si>
+  <si>
+    <t>tsmc2p (130)</t>
+  </si>
+  <si>
+    <t>tsmc2p (131)</t>
+  </si>
+  <si>
+    <t>tsmc2p (132)</t>
+  </si>
+  <si>
+    <t>tsmc2p (133)</t>
+  </si>
+  <si>
+    <t>tsmc2p (134)</t>
+  </si>
+  <si>
+    <t>tsmc2p (135)</t>
+  </si>
+  <si>
+    <t>tsmc2p (136)</t>
+  </si>
+  <si>
+    <t>tsmc2p (137)</t>
+  </si>
+  <si>
+    <t>tsmc2p (138)</t>
+  </si>
+  <si>
+    <t>tsmc2p (139)</t>
+  </si>
+  <si>
+    <t>tsmc2p (140)</t>
+  </si>
+  <si>
+    <t>tsmc2p (141)</t>
+  </si>
+  <si>
+    <t>tsmc2p (142)</t>
+  </si>
+  <si>
+    <t>tsmc2p (143)</t>
+  </si>
+  <si>
+    <t>tsmc2p (144)</t>
+  </si>
+  <si>
+    <t>tsmc2p (145)</t>
+  </si>
+  <si>
+    <t>tsmc2p (146)</t>
+  </si>
+  <si>
+    <t>tsmc2p (147)</t>
+  </si>
+  <si>
+    <t>tsmc2p (148)</t>
+  </si>
+  <si>
+    <t>tsmc2p (149)</t>
+  </si>
+  <si>
+    <t>tsmc2p (150)</t>
+  </si>
+  <si>
+    <t>tsmc2p (151)</t>
+  </si>
+  <si>
+    <t>tsmc2p (152)</t>
   </si>
   <si>
     <t>Min</t>
@@ -905,13 +1067,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U114"/>
+  <dimension ref="A1:U165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="113" width="9.140625"/>
+    <col min="1" max="164" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1">
@@ -4323,7 +4485,7 @@
         <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="K53" t="s">
         <v>31</v>
@@ -4361,7 +4523,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -4388,7 +4550,7 @@
         <v>46</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K54" t="s">
         <v>48</v>
@@ -4426,7 +4588,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -4453,7 +4615,7 @@
         <v>52</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K55" t="s">
         <v>48</v>
@@ -4491,7 +4653,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -4518,7 +4680,7 @@
         <v>46</v>
       </c>
       <c r="J56" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K56" t="s">
         <v>62</v>
@@ -4556,7 +4718,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
@@ -4583,7 +4745,7 @@
         <v>52</v>
       </c>
       <c r="J57" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s">
         <v>62</v>
@@ -4621,7 +4783,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -4648,7 +4810,7 @@
         <v>46</v>
       </c>
       <c r="J58" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s">
         <v>62</v>
@@ -4686,7 +4848,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
@@ -4713,7 +4875,7 @@
         <v>52</v>
       </c>
       <c r="J59" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s">
         <v>62</v>
@@ -4751,7 +4913,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
@@ -4778,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="J60" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s">
         <v>62</v>
@@ -4816,7 +4978,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -4843,7 +5005,7 @@
         <v>52</v>
       </c>
       <c r="J61" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K61" t="s">
         <v>62</v>
@@ -4881,7 +5043,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -4908,7 +5070,7 @@
         <v>46</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s">
         <v>48</v>
@@ -4946,7 +5108,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -4973,7 +5135,7 @@
         <v>46</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K63" t="s">
         <v>48</v>
@@ -5011,7 +5173,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -5038,7 +5200,7 @@
         <v>46</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K64" t="s">
         <v>48</v>
@@ -5076,7 +5238,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
         <v>39</v>
@@ -5103,7 +5265,7 @@
         <v>52</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K65" t="s">
         <v>48</v>
@@ -5141,7 +5303,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
         <v>39</v>
@@ -5168,7 +5330,7 @@
         <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K66" t="s">
         <v>48</v>
@@ -5206,7 +5368,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
@@ -5233,7 +5395,7 @@
         <v>52</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="K67" t="s">
         <v>48</v>
@@ -5271,7 +5433,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
         <v>54</v>
@@ -5298,7 +5460,7 @@
         <v>46</v>
       </c>
       <c r="J68" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K68" t="s">
         <v>62</v>
@@ -5336,7 +5498,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
         <v>54</v>
@@ -5363,7 +5525,7 @@
         <v>46</v>
       </c>
       <c r="J69" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K69" t="s">
         <v>62</v>
@@ -5401,7 +5563,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
         <v>54</v>
@@ -5428,7 +5590,7 @@
         <v>46</v>
       </c>
       <c r="J70" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K70" t="s">
         <v>62</v>
@@ -5466,7 +5628,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
         <v>54</v>
@@ -5493,7 +5655,7 @@
         <v>52</v>
       </c>
       <c r="J71" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K71" t="s">
         <v>62</v>
@@ -5531,7 +5693,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
         <v>54</v>
@@ -5558,7 +5720,7 @@
         <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s">
         <v>62</v>
@@ -5596,7 +5758,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
         <v>54</v>
@@ -5623,7 +5785,7 @@
         <v>52</v>
       </c>
       <c r="J73" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K73" t="s">
         <v>62</v>
@@ -5661,7 +5823,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
@@ -5688,7 +5850,7 @@
         <v>46</v>
       </c>
       <c r="J74" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K74" t="s">
         <v>62</v>
@@ -5726,7 +5888,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -5753,7 +5915,7 @@
         <v>46</v>
       </c>
       <c r="J75" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K75" t="s">
         <v>62</v>
@@ -5791,7 +5953,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
         <v>54</v>
@@ -5818,7 +5980,7 @@
         <v>46</v>
       </c>
       <c r="J76" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K76" t="s">
         <v>62</v>
@@ -5856,7 +6018,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
@@ -5883,7 +6045,7 @@
         <v>52</v>
       </c>
       <c r="J77" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K77" t="s">
         <v>62</v>
@@ -5921,7 +6083,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
         <v>54</v>
@@ -5948,7 +6110,7 @@
         <v>52</v>
       </c>
       <c r="J78" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K78" t="s">
         <v>62</v>
@@ -5986,7 +6148,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
@@ -6013,7 +6175,7 @@
         <v>52</v>
       </c>
       <c r="J79" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K79" t="s">
         <v>62</v>
@@ -6051,7 +6213,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
@@ -6078,7 +6240,7 @@
         <v>46</v>
       </c>
       <c r="J80" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K80" t="s">
         <v>62</v>
@@ -6116,7 +6278,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
         <v>66</v>
@@ -6143,7 +6305,7 @@
         <v>46</v>
       </c>
       <c r="J81" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K81" t="s">
         <v>62</v>
@@ -6181,7 +6343,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
         <v>66</v>
@@ -6208,7 +6370,7 @@
         <v>46</v>
       </c>
       <c r="J82" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K82" t="s">
         <v>62</v>
@@ -6246,7 +6408,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
         <v>66</v>
@@ -6273,7 +6435,7 @@
         <v>52</v>
       </c>
       <c r="J83" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K83" t="s">
         <v>62</v>
@@ -6311,7 +6473,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
         <v>66</v>
@@ -6338,7 +6500,7 @@
         <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K84" t="s">
         <v>62</v>
@@ -6376,7 +6538,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
         <v>66</v>
@@ -6403,7 +6565,7 @@
         <v>52</v>
       </c>
       <c r="J85" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K85" t="s">
         <v>62</v>
@@ -6441,7 +6603,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
@@ -6468,7 +6630,7 @@
         <v>46</v>
       </c>
       <c r="J86" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K86" t="s">
         <v>62</v>
@@ -6506,7 +6668,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
         <v>66</v>
@@ -6533,7 +6695,7 @@
         <v>46</v>
       </c>
       <c r="J87" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K87" t="s">
         <v>62</v>
@@ -6571,7 +6733,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
         <v>66</v>
@@ -6598,7 +6760,7 @@
         <v>46</v>
       </c>
       <c r="J88" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K88" t="s">
         <v>62</v>
@@ -6636,7 +6798,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
         <v>66</v>
@@ -6663,7 +6825,7 @@
         <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K89" t="s">
         <v>62</v>
@@ -6701,7 +6863,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
         <v>66</v>
@@ -6728,7 +6890,7 @@
         <v>52</v>
       </c>
       <c r="J90" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K90" t="s">
         <v>62</v>
@@ -6766,7 +6928,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
         <v>66</v>
@@ -6793,7 +6955,7 @@
         <v>52</v>
       </c>
       <c r="J91" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K91" t="s">
         <v>62</v>
@@ -6831,7 +6993,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
         <v>72</v>
@@ -6858,7 +7020,7 @@
         <v>46</v>
       </c>
       <c r="J92" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K92" t="s">
         <v>62</v>
@@ -6896,7 +7058,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
         <v>72</v>
@@ -6923,7 +7085,7 @@
         <v>46</v>
       </c>
       <c r="J93" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K93" t="s">
         <v>62</v>
@@ -6961,7 +7123,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B94" t="s">
         <v>72</v>
@@ -6988,7 +7150,7 @@
         <v>46</v>
       </c>
       <c r="J94" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K94" t="s">
         <v>62</v>
@@ -7026,7 +7188,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
         <v>72</v>
@@ -7053,7 +7215,7 @@
         <v>52</v>
       </c>
       <c r="J95" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K95" t="s">
         <v>62</v>
@@ -7091,7 +7253,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
         <v>72</v>
@@ -7118,7 +7280,7 @@
         <v>52</v>
       </c>
       <c r="J96" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K96" t="s">
         <v>62</v>
@@ -7156,7 +7318,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
         <v>72</v>
@@ -7183,7 +7345,7 @@
         <v>52</v>
       </c>
       <c r="J97" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K97" t="s">
         <v>62</v>
@@ -7221,7 +7383,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
         <v>72</v>
@@ -7248,7 +7410,7 @@
         <v>46</v>
       </c>
       <c r="J98" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K98" t="s">
         <v>62</v>
@@ -7286,7 +7448,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
         <v>72</v>
@@ -7313,7 +7475,7 @@
         <v>46</v>
       </c>
       <c r="J99" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K99" t="s">
         <v>62</v>
@@ -7351,7 +7513,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
         <v>72</v>
@@ -7378,7 +7540,7 @@
         <v>46</v>
       </c>
       <c r="J100" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K100" t="s">
         <v>62</v>
@@ -7416,7 +7578,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
         <v>72</v>
@@ -7443,7 +7605,7 @@
         <v>52</v>
       </c>
       <c r="J101" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K101" t="s">
         <v>62</v>
@@ -7481,7 +7643,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
         <v>72</v>
@@ -7508,7 +7670,7 @@
         <v>52</v>
       </c>
       <c r="J102" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K102" t="s">
         <v>62</v>
@@ -7546,7 +7708,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
         <v>72</v>
@@ -7573,7 +7735,7 @@
         <v>52</v>
       </c>
       <c r="J103" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K103" t="s">
         <v>62</v>
@@ -7609,177 +7771,3492 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="1" customFormat="1">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:21">
+      <c r="A104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J104" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" t="s">
+        <v>33</v>
+      </c>
+      <c r="N104" t="s">
+        <v>34</v>
+      </c>
+      <c r="O104" t="s">
+        <v>35</v>
+      </c>
+      <c r="P104" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>36</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" t="s">
+        <v>48</v>
+      </c>
+      <c r="L105" t="s">
+        <v>32</v>
+      </c>
+      <c r="M105" t="s">
+        <v>33</v>
+      </c>
+      <c r="N105" t="s">
+        <v>34</v>
+      </c>
+      <c r="O105" t="s">
+        <v>35</v>
+      </c>
+      <c r="P105" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>49</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s">
+        <v>43</v>
+      </c>
+      <c r="G106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106" t="s">
+        <v>48</v>
+      </c>
+      <c r="L106" t="s">
+        <v>32</v>
+      </c>
+      <c r="M106" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" t="s">
+        <v>34</v>
+      </c>
+      <c r="O106" t="s">
+        <v>35</v>
+      </c>
+      <c r="P106" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>49</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" t="s">
+        <v>58</v>
+      </c>
+      <c r="G107" t="s">
+        <v>59</v>
+      </c>
+      <c r="H107" t="s">
+        <v>60</v>
+      </c>
+      <c r="I107" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" t="s">
+        <v>62</v>
+      </c>
+      <c r="K107" t="s">
+        <v>62</v>
+      </c>
+      <c r="L107" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" t="s">
+        <v>33</v>
+      </c>
+      <c r="N107" t="s">
+        <v>34</v>
+      </c>
+      <c r="O107" t="s">
+        <v>35</v>
+      </c>
+      <c r="P107" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>63</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" t="s">
+        <v>58</v>
+      </c>
+      <c r="G108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" t="s">
+        <v>60</v>
+      </c>
+      <c r="I108" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s">
+        <v>62</v>
+      </c>
+      <c r="K108" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" t="s">
+        <v>32</v>
+      </c>
+      <c r="M108" t="s">
+        <v>33</v>
+      </c>
+      <c r="N108" t="s">
+        <v>34</v>
+      </c>
+      <c r="O108" t="s">
+        <v>35</v>
+      </c>
+      <c r="P108" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>63</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" t="s">
+        <v>58</v>
+      </c>
+      <c r="G109" t="s">
+        <v>59</v>
+      </c>
+      <c r="H109" t="s">
+        <v>60</v>
+      </c>
+      <c r="I109" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" t="s">
+        <v>62</v>
+      </c>
+      <c r="K109" t="s">
+        <v>62</v>
+      </c>
+      <c r="L109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" t="s">
+        <v>34</v>
+      </c>
+      <c r="O109" t="s">
+        <v>35</v>
+      </c>
+      <c r="P109" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>63</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" t="s">
+        <v>59</v>
+      </c>
+      <c r="H110" t="s">
+        <v>60</v>
+      </c>
+      <c r="I110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s">
+        <v>62</v>
+      </c>
+      <c r="K110" t="s">
+        <v>62</v>
+      </c>
+      <c r="L110" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" t="s">
+        <v>33</v>
+      </c>
+      <c r="N110" t="s">
+        <v>34</v>
+      </c>
+      <c r="O110" t="s">
+        <v>35</v>
+      </c>
+      <c r="P110" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>63</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U110" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s">
+        <v>58</v>
+      </c>
+      <c r="G111" t="s">
+        <v>59</v>
+      </c>
+      <c r="H111" t="s">
+        <v>60</v>
+      </c>
+      <c r="I111" t="s">
+        <v>46</v>
+      </c>
+      <c r="J111" t="s">
+        <v>62</v>
+      </c>
+      <c r="K111" t="s">
+        <v>62</v>
+      </c>
+      <c r="L111" t="s">
+        <v>32</v>
+      </c>
+      <c r="M111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" t="s">
+        <v>34</v>
+      </c>
+      <c r="O111" t="s">
+        <v>35</v>
+      </c>
+      <c r="P111" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>63</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U111" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" t="s">
+        <v>58</v>
+      </c>
+      <c r="G112" t="s">
+        <v>59</v>
+      </c>
+      <c r="H112" t="s">
+        <v>60</v>
+      </c>
+      <c r="I112" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" t="s">
+        <v>62</v>
+      </c>
+      <c r="K112" t="s">
+        <v>62</v>
+      </c>
+      <c r="L112" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112" t="s">
+        <v>34</v>
+      </c>
+      <c r="O112" t="s">
+        <v>35</v>
+      </c>
+      <c r="P112" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>63</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" t="s">
+        <v>60</v>
+      </c>
+      <c r="I113" t="s">
+        <v>46</v>
+      </c>
+      <c r="J113" t="s">
+        <v>48</v>
+      </c>
+      <c r="K113" t="s">
+        <v>48</v>
+      </c>
+      <c r="L113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>33</v>
+      </c>
+      <c r="N113" t="s">
+        <v>34</v>
+      </c>
+      <c r="O113" t="s">
+        <v>35</v>
+      </c>
+      <c r="P113" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>49</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
+      <c r="A114" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s">
+        <v>59</v>
+      </c>
+      <c r="H114" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s">
+        <v>46</v>
+      </c>
+      <c r="J114" t="s">
+        <v>48</v>
+      </c>
+      <c r="K114" t="s">
+        <v>48</v>
+      </c>
+      <c r="L114" t="s">
+        <v>32</v>
+      </c>
+      <c r="M114" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114" t="s">
+        <v>34</v>
+      </c>
+      <c r="O114" t="s">
+        <v>35</v>
+      </c>
+      <c r="P114" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>49</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
+      <c r="A115" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s">
+        <v>43</v>
+      </c>
+      <c r="G115" t="s">
+        <v>59</v>
+      </c>
+      <c r="H115" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" t="s">
+        <v>46</v>
+      </c>
+      <c r="J115" t="s">
+        <v>48</v>
+      </c>
+      <c r="K115" t="s">
+        <v>48</v>
+      </c>
+      <c r="L115" t="s">
+        <v>32</v>
+      </c>
+      <c r="M115" t="s">
+        <v>33</v>
+      </c>
+      <c r="N115" t="s">
+        <v>34</v>
+      </c>
+      <c r="O115" t="s">
+        <v>35</v>
+      </c>
+      <c r="P115" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>49</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U115" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
+      <c r="A116" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116" t="s">
+        <v>60</v>
+      </c>
+      <c r="I116" t="s">
+        <v>52</v>
+      </c>
+      <c r="J116" t="s">
+        <v>48</v>
+      </c>
+      <c r="K116" t="s">
+        <v>48</v>
+      </c>
+      <c r="L116" t="s">
+        <v>32</v>
+      </c>
+      <c r="M116" t="s">
+        <v>33</v>
+      </c>
+      <c r="N116" t="s">
+        <v>34</v>
+      </c>
+      <c r="O116" t="s">
+        <v>35</v>
+      </c>
+      <c r="P116" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>49</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
+      <c r="A117" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" t="s">
+        <v>59</v>
+      </c>
+      <c r="H117" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s">
+        <v>52</v>
+      </c>
+      <c r="J117" t="s">
+        <v>48</v>
+      </c>
+      <c r="K117" t="s">
+        <v>48</v>
+      </c>
+      <c r="L117" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" t="s">
+        <v>33</v>
+      </c>
+      <c r="N117" t="s">
+        <v>34</v>
+      </c>
+      <c r="O117" t="s">
+        <v>35</v>
+      </c>
+      <c r="P117" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>49</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
+      <c r="A118" t="s">
+        <v>187</v>
+      </c>
+      <c r="B118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s">
+        <v>59</v>
+      </c>
+      <c r="H118" t="s">
+        <v>60</v>
+      </c>
+      <c r="I118" t="s">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s">
+        <v>48</v>
+      </c>
+      <c r="K118" t="s">
+        <v>48</v>
+      </c>
+      <c r="L118" t="s">
+        <v>32</v>
+      </c>
+      <c r="M118" t="s">
+        <v>33</v>
+      </c>
+      <c r="N118" t="s">
+        <v>34</v>
+      </c>
+      <c r="O118" t="s">
+        <v>35</v>
+      </c>
+      <c r="P118" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>49</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
+      <c r="A119" t="s">
+        <v>188</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" t="s">
+        <v>58</v>
+      </c>
+      <c r="G119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s">
+        <v>46</v>
+      </c>
+      <c r="J119" t="s">
+        <v>62</v>
+      </c>
+      <c r="K119" t="s">
+        <v>62</v>
+      </c>
+      <c r="L119" t="s">
+        <v>32</v>
+      </c>
+      <c r="M119" t="s">
+        <v>33</v>
+      </c>
+      <c r="N119" t="s">
+        <v>34</v>
+      </c>
+      <c r="O119" t="s">
+        <v>35</v>
+      </c>
+      <c r="P119" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>63</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
+      <c r="A120" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" t="s">
+        <v>60</v>
+      </c>
+      <c r="I120" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120" t="s">
+        <v>62</v>
+      </c>
+      <c r="K120" t="s">
+        <v>62</v>
+      </c>
+      <c r="L120" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" t="s">
+        <v>33</v>
+      </c>
+      <c r="N120" t="s">
+        <v>34</v>
+      </c>
+      <c r="O120" t="s">
+        <v>35</v>
+      </c>
+      <c r="P120" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>63</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" t="s">
+        <v>58</v>
+      </c>
+      <c r="G121" t="s">
+        <v>59</v>
+      </c>
+      <c r="H121" t="s">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s">
+        <v>46</v>
+      </c>
+      <c r="J121" t="s">
+        <v>62</v>
+      </c>
+      <c r="K121" t="s">
+        <v>62</v>
+      </c>
+      <c r="L121" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" t="s">
+        <v>33</v>
+      </c>
+      <c r="N121" t="s">
+        <v>34</v>
+      </c>
+      <c r="O121" t="s">
+        <v>35</v>
+      </c>
+      <c r="P121" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>63</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U121" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>56</v>
+      </c>
+      <c r="E122" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" t="s">
+        <v>58</v>
+      </c>
+      <c r="G122" t="s">
+        <v>44</v>
+      </c>
+      <c r="H122" t="s">
+        <v>45</v>
+      </c>
+      <c r="I122" t="s">
+        <v>52</v>
+      </c>
+      <c r="J122" t="s">
+        <v>62</v>
+      </c>
+      <c r="K122" t="s">
+        <v>62</v>
+      </c>
+      <c r="L122" t="s">
+        <v>32</v>
+      </c>
+      <c r="M122" t="s">
+        <v>33</v>
+      </c>
+      <c r="N122" t="s">
+        <v>34</v>
+      </c>
+      <c r="O122" t="s">
+        <v>35</v>
+      </c>
+      <c r="P122" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>63</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" t="s">
+        <v>58</v>
+      </c>
+      <c r="G123" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123" t="s">
+        <v>60</v>
+      </c>
+      <c r="I123" t="s">
+        <v>52</v>
+      </c>
+      <c r="J123" t="s">
+        <v>62</v>
+      </c>
+      <c r="K123" t="s">
+        <v>62</v>
+      </c>
+      <c r="L123" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" t="s">
+        <v>33</v>
+      </c>
+      <c r="N123" t="s">
+        <v>34</v>
+      </c>
+      <c r="O123" t="s">
+        <v>35</v>
+      </c>
+      <c r="P123" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>63</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" t="s">
+        <v>59</v>
+      </c>
+      <c r="H124" t="s">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s">
+        <v>52</v>
+      </c>
+      <c r="J124" t="s">
+        <v>62</v>
+      </c>
+      <c r="K124" t="s">
+        <v>62</v>
+      </c>
+      <c r="L124" t="s">
+        <v>32</v>
+      </c>
+      <c r="M124" t="s">
+        <v>33</v>
+      </c>
+      <c r="N124" t="s">
+        <v>34</v>
+      </c>
+      <c r="O124" t="s">
+        <v>35</v>
+      </c>
+      <c r="P124" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>63</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U124" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" t="s">
+        <v>58</v>
+      </c>
+      <c r="G125" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" t="s">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s">
+        <v>46</v>
+      </c>
+      <c r="J125" t="s">
+        <v>62</v>
+      </c>
+      <c r="K125" t="s">
+        <v>62</v>
+      </c>
+      <c r="L125" t="s">
+        <v>32</v>
+      </c>
+      <c r="M125" t="s">
+        <v>33</v>
+      </c>
+      <c r="N125" t="s">
+        <v>34</v>
+      </c>
+      <c r="O125" t="s">
+        <v>35</v>
+      </c>
+      <c r="P125" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>49</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>195</v>
+      </c>
+      <c r="B126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" t="s">
+        <v>56</v>
+      </c>
+      <c r="E126" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" t="s">
+        <v>58</v>
+      </c>
+      <c r="G126" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" t="s">
+        <v>60</v>
+      </c>
+      <c r="I126" t="s">
+        <v>46</v>
+      </c>
+      <c r="J126" t="s">
+        <v>62</v>
+      </c>
+      <c r="K126" t="s">
+        <v>62</v>
+      </c>
+      <c r="L126" t="s">
+        <v>32</v>
+      </c>
+      <c r="M126" t="s">
+        <v>33</v>
+      </c>
+      <c r="N126" t="s">
+        <v>34</v>
+      </c>
+      <c r="O126" t="s">
+        <v>35</v>
+      </c>
+      <c r="P126" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>49</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" t="s">
+        <v>56</v>
+      </c>
+      <c r="E127" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" t="s">
+        <v>58</v>
+      </c>
+      <c r="G127" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s">
+        <v>46</v>
+      </c>
+      <c r="J127" t="s">
+        <v>62</v>
+      </c>
+      <c r="K127" t="s">
+        <v>62</v>
+      </c>
+      <c r="L127" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" t="s">
+        <v>33</v>
+      </c>
+      <c r="N127" t="s">
+        <v>34</v>
+      </c>
+      <c r="O127" t="s">
+        <v>35</v>
+      </c>
+      <c r="P127" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>49</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" t="s">
+        <v>58</v>
+      </c>
+      <c r="G128" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s">
+        <v>52</v>
+      </c>
+      <c r="J128" t="s">
+        <v>62</v>
+      </c>
+      <c r="K128" t="s">
+        <v>62</v>
+      </c>
+      <c r="L128" t="s">
+        <v>32</v>
+      </c>
+      <c r="M128" t="s">
+        <v>33</v>
+      </c>
+      <c r="N128" t="s">
+        <v>34</v>
+      </c>
+      <c r="O128" t="s">
+        <v>35</v>
+      </c>
+      <c r="P128" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>49</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" t="s">
+        <v>44</v>
+      </c>
+      <c r="H129" t="s">
+        <v>60</v>
+      </c>
+      <c r="I129" t="s">
+        <v>52</v>
+      </c>
+      <c r="J129" t="s">
+        <v>62</v>
+      </c>
+      <c r="K129" t="s">
+        <v>62</v>
+      </c>
+      <c r="L129" t="s">
+        <v>32</v>
+      </c>
+      <c r="M129" t="s">
+        <v>33</v>
+      </c>
+      <c r="N129" t="s">
+        <v>34</v>
+      </c>
+      <c r="O129" t="s">
+        <v>35</v>
+      </c>
+      <c r="P129" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>49</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" t="s">
+        <v>58</v>
+      </c>
+      <c r="G130" t="s">
+        <v>59</v>
+      </c>
+      <c r="H130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s">
+        <v>52</v>
+      </c>
+      <c r="J130" t="s">
+        <v>62</v>
+      </c>
+      <c r="K130" t="s">
+        <v>62</v>
+      </c>
+      <c r="L130" t="s">
+        <v>32</v>
+      </c>
+      <c r="M130" t="s">
+        <v>33</v>
+      </c>
+      <c r="N130" t="s">
+        <v>34</v>
+      </c>
+      <c r="O130" t="s">
+        <v>35</v>
+      </c>
+      <c r="P130" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>49</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U130" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" t="s">
+        <v>45</v>
+      </c>
+      <c r="I131" t="s">
+        <v>46</v>
+      </c>
+      <c r="J131" t="s">
+        <v>62</v>
+      </c>
+      <c r="K131" t="s">
+        <v>62</v>
+      </c>
+      <c r="L131" t="s">
+        <v>32</v>
+      </c>
+      <c r="M131" t="s">
+        <v>33</v>
+      </c>
+      <c r="N131" t="s">
+        <v>34</v>
+      </c>
+      <c r="O131" t="s">
+        <v>35</v>
+      </c>
+      <c r="P131" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>63</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U131" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" t="s">
+        <v>68</v>
+      </c>
+      <c r="E132" t="s">
+        <v>69</v>
+      </c>
+      <c r="F132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" t="s">
+        <v>44</v>
+      </c>
+      <c r="H132" t="s">
+        <v>60</v>
+      </c>
+      <c r="I132" t="s">
+        <v>46</v>
+      </c>
+      <c r="J132" t="s">
+        <v>62</v>
+      </c>
+      <c r="K132" t="s">
+        <v>62</v>
+      </c>
+      <c r="L132" t="s">
+        <v>32</v>
+      </c>
+      <c r="M132" t="s">
+        <v>33</v>
+      </c>
+      <c r="N132" t="s">
+        <v>34</v>
+      </c>
+      <c r="O132" t="s">
+        <v>35</v>
+      </c>
+      <c r="P132" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>63</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" t="s">
+        <v>68</v>
+      </c>
+      <c r="E133" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" t="s">
+        <v>58</v>
+      </c>
+      <c r="G133" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" t="s">
+        <v>45</v>
+      </c>
+      <c r="I133" t="s">
+        <v>46</v>
+      </c>
+      <c r="J133" t="s">
+        <v>62</v>
+      </c>
+      <c r="K133" t="s">
+        <v>62</v>
+      </c>
+      <c r="L133" t="s">
+        <v>32</v>
+      </c>
+      <c r="M133" t="s">
+        <v>33</v>
+      </c>
+      <c r="N133" t="s">
+        <v>34</v>
+      </c>
+      <c r="O133" t="s">
+        <v>35</v>
+      </c>
+      <c r="P133" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>63</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U133" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" t="s">
+        <v>66</v>
+      </c>
+      <c r="C134" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134" t="s">
+        <v>69</v>
+      </c>
+      <c r="F134" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" t="s">
+        <v>62</v>
+      </c>
+      <c r="K134" t="s">
+        <v>62</v>
+      </c>
+      <c r="L134" t="s">
+        <v>32</v>
+      </c>
+      <c r="M134" t="s">
+        <v>33</v>
+      </c>
+      <c r="N134" t="s">
+        <v>34</v>
+      </c>
+      <c r="O134" t="s">
+        <v>35</v>
+      </c>
+      <c r="P134" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>63</v>
+      </c>
+      <c r="R134" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U134" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135" t="s">
+        <v>68</v>
+      </c>
+      <c r="E135" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" t="s">
+        <v>58</v>
+      </c>
+      <c r="G135" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135" t="s">
+        <v>60</v>
+      </c>
+      <c r="I135" t="s">
+        <v>52</v>
+      </c>
+      <c r="J135" t="s">
+        <v>62</v>
+      </c>
+      <c r="K135" t="s">
+        <v>62</v>
+      </c>
+      <c r="L135" t="s">
+        <v>32</v>
+      </c>
+      <c r="M135" t="s">
+        <v>33</v>
+      </c>
+      <c r="N135" t="s">
+        <v>34</v>
+      </c>
+      <c r="O135" t="s">
+        <v>35</v>
+      </c>
+      <c r="P135" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>63</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U135" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136" t="s">
+        <v>69</v>
+      </c>
+      <c r="F136" t="s">
+        <v>58</v>
+      </c>
+      <c r="G136" t="s">
+        <v>59</v>
+      </c>
+      <c r="H136" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s">
+        <v>52</v>
+      </c>
+      <c r="J136" t="s">
+        <v>62</v>
+      </c>
+      <c r="K136" t="s">
+        <v>62</v>
+      </c>
+      <c r="L136" t="s">
+        <v>32</v>
+      </c>
+      <c r="M136" t="s">
+        <v>33</v>
+      </c>
+      <c r="N136" t="s">
+        <v>34</v>
+      </c>
+      <c r="O136" t="s">
+        <v>35</v>
+      </c>
+      <c r="P136" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>63</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137" t="s">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s">
+        <v>46</v>
+      </c>
+      <c r="J137" t="s">
+        <v>62</v>
+      </c>
+      <c r="K137" t="s">
+        <v>62</v>
+      </c>
+      <c r="L137" t="s">
+        <v>32</v>
+      </c>
+      <c r="M137" t="s">
+        <v>33</v>
+      </c>
+      <c r="N137" t="s">
+        <v>34</v>
+      </c>
+      <c r="O137" t="s">
+        <v>35</v>
+      </c>
+      <c r="P137" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>49</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" t="s">
+        <v>69</v>
+      </c>
+      <c r="F138" t="s">
+        <v>58</v>
+      </c>
+      <c r="G138" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" t="s">
+        <v>60</v>
+      </c>
+      <c r="I138" t="s">
+        <v>46</v>
+      </c>
+      <c r="J138" t="s">
+        <v>62</v>
+      </c>
+      <c r="K138" t="s">
+        <v>62</v>
+      </c>
+      <c r="L138" t="s">
+        <v>32</v>
+      </c>
+      <c r="M138" t="s">
+        <v>33</v>
+      </c>
+      <c r="N138" t="s">
+        <v>34</v>
+      </c>
+      <c r="O138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P138" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>49</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>208</v>
+      </c>
+      <c r="B139" t="s">
+        <v>66</v>
+      </c>
+      <c r="C139" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" t="s">
+        <v>58</v>
+      </c>
+      <c r="G139" t="s">
+        <v>59</v>
+      </c>
+      <c r="H139" t="s">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" t="s">
+        <v>62</v>
+      </c>
+      <c r="K139" t="s">
+        <v>62</v>
+      </c>
+      <c r="L139" t="s">
+        <v>32</v>
+      </c>
+      <c r="M139" t="s">
+        <v>33</v>
+      </c>
+      <c r="N139" t="s">
+        <v>34</v>
+      </c>
+      <c r="O139" t="s">
+        <v>35</v>
+      </c>
+      <c r="P139" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>49</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>209</v>
+      </c>
+      <c r="B140" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" t="s">
+        <v>69</v>
+      </c>
+      <c r="F140" t="s">
+        <v>58</v>
+      </c>
+      <c r="G140" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s">
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>62</v>
+      </c>
+      <c r="K140" t="s">
+        <v>62</v>
+      </c>
+      <c r="L140" t="s">
+        <v>32</v>
+      </c>
+      <c r="M140" t="s">
+        <v>33</v>
+      </c>
+      <c r="N140" t="s">
+        <v>34</v>
+      </c>
+      <c r="O140" t="s">
+        <v>35</v>
+      </c>
+      <c r="P140" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>49</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" t="s">
+        <v>67</v>
+      </c>
+      <c r="D141" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" t="s">
+        <v>58</v>
+      </c>
+      <c r="G141" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141" t="s">
+        <v>60</v>
+      </c>
+      <c r="I141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J141" t="s">
+        <v>62</v>
+      </c>
+      <c r="K141" t="s">
+        <v>62</v>
+      </c>
+      <c r="L141" t="s">
+        <v>32</v>
+      </c>
+      <c r="M141" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" t="s">
+        <v>34</v>
+      </c>
+      <c r="O141" t="s">
+        <v>35</v>
+      </c>
+      <c r="P141" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>49</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="s">
+        <v>211</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" t="s">
+        <v>68</v>
+      </c>
+      <c r="E142" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" t="s">
+        <v>58</v>
+      </c>
+      <c r="G142" t="s">
+        <v>59</v>
+      </c>
+      <c r="H142" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s">
+        <v>62</v>
+      </c>
+      <c r="K142" t="s">
+        <v>62</v>
+      </c>
+      <c r="L142" t="s">
+        <v>32</v>
+      </c>
+      <c r="M142" t="s">
+        <v>33</v>
+      </c>
+      <c r="N142" t="s">
+        <v>34</v>
+      </c>
+      <c r="O142" t="s">
+        <v>35</v>
+      </c>
+      <c r="P142" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>49</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U142" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" t="s">
+        <v>212</v>
+      </c>
+      <c r="B143" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" t="s">
+        <v>74</v>
+      </c>
+      <c r="E143" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" t="s">
+        <v>58</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" t="s">
+        <v>62</v>
+      </c>
+      <c r="K143" t="s">
+        <v>62</v>
+      </c>
+      <c r="L143" t="s">
+        <v>32</v>
+      </c>
+      <c r="M143" t="s">
+        <v>33</v>
+      </c>
+      <c r="N143" t="s">
+        <v>34</v>
+      </c>
+      <c r="O143" t="s">
+        <v>35</v>
+      </c>
+      <c r="P143" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>63</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U143" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" t="s">
+        <v>213</v>
+      </c>
+      <c r="B144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" t="s">
+        <v>73</v>
+      </c>
+      <c r="D144" t="s">
+        <v>74</v>
+      </c>
+      <c r="E144" t="s">
+        <v>75</v>
+      </c>
+      <c r="F144" t="s">
+        <v>58</v>
+      </c>
+      <c r="G144" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="s">
+        <v>62</v>
+      </c>
+      <c r="K144" t="s">
+        <v>62</v>
+      </c>
+      <c r="L144" t="s">
+        <v>32</v>
+      </c>
+      <c r="M144" t="s">
+        <v>33</v>
+      </c>
+      <c r="N144" t="s">
+        <v>34</v>
+      </c>
+      <c r="O144" t="s">
+        <v>35</v>
+      </c>
+      <c r="P144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>63</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" t="s">
+        <v>214</v>
+      </c>
+      <c r="B145" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" t="s">
+        <v>73</v>
+      </c>
+      <c r="D145" t="s">
+        <v>74</v>
+      </c>
+      <c r="E145" t="s">
+        <v>75</v>
+      </c>
+      <c r="F145" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" t="s">
+        <v>59</v>
+      </c>
+      <c r="H145" t="s">
+        <v>45</v>
+      </c>
+      <c r="I145" t="s">
+        <v>46</v>
+      </c>
+      <c r="J145" t="s">
+        <v>62</v>
+      </c>
+      <c r="K145" t="s">
+        <v>62</v>
+      </c>
+      <c r="L145" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" t="s">
+        <v>33</v>
+      </c>
+      <c r="N145" t="s">
+        <v>34</v>
+      </c>
+      <c r="O145" t="s">
+        <v>35</v>
+      </c>
+      <c r="P145" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>63</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="A146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" t="s">
+        <v>73</v>
+      </c>
+      <c r="D146" t="s">
+        <v>74</v>
+      </c>
+      <c r="E146" t="s">
+        <v>75</v>
+      </c>
+      <c r="F146" t="s">
+        <v>58</v>
+      </c>
+      <c r="G146" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" t="s">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s">
+        <v>52</v>
+      </c>
+      <c r="J146" t="s">
+        <v>62</v>
+      </c>
+      <c r="K146" t="s">
+        <v>62</v>
+      </c>
+      <c r="L146" t="s">
+        <v>32</v>
+      </c>
+      <c r="M146" t="s">
+        <v>33</v>
+      </c>
+      <c r="N146" t="s">
+        <v>34</v>
+      </c>
+      <c r="O146" t="s">
+        <v>35</v>
+      </c>
+      <c r="P146" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>63</v>
+      </c>
+      <c r="R146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" t="s">
+        <v>73</v>
+      </c>
+      <c r="D147" t="s">
+        <v>74</v>
+      </c>
+      <c r="E147" t="s">
+        <v>75</v>
+      </c>
+      <c r="F147" t="s">
+        <v>58</v>
+      </c>
+      <c r="G147" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147" t="s">
+        <v>60</v>
+      </c>
+      <c r="I147" t="s">
+        <v>52</v>
+      </c>
+      <c r="J147" t="s">
+        <v>62</v>
+      </c>
+      <c r="K147" t="s">
+        <v>62</v>
+      </c>
+      <c r="L147" t="s">
+        <v>32</v>
+      </c>
+      <c r="M147" t="s">
+        <v>33</v>
+      </c>
+      <c r="N147" t="s">
+        <v>34</v>
+      </c>
+      <c r="O147" t="s">
+        <v>35</v>
+      </c>
+      <c r="P147" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>63</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" t="s">
+        <v>217</v>
+      </c>
+      <c r="B148" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" t="s">
+        <v>74</v>
+      </c>
+      <c r="E148" t="s">
+        <v>75</v>
+      </c>
+      <c r="F148" t="s">
+        <v>58</v>
+      </c>
+      <c r="G148" t="s">
+        <v>59</v>
+      </c>
+      <c r="H148" t="s">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" t="s">
+        <v>62</v>
+      </c>
+      <c r="K148" t="s">
+        <v>62</v>
+      </c>
+      <c r="L148" t="s">
+        <v>32</v>
+      </c>
+      <c r="M148" t="s">
+        <v>33</v>
+      </c>
+      <c r="N148" t="s">
+        <v>34</v>
+      </c>
+      <c r="O148" t="s">
+        <v>35</v>
+      </c>
+      <c r="P148" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>63</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" t="s">
+        <v>218</v>
+      </c>
+      <c r="B149" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" t="s">
+        <v>73</v>
+      </c>
+      <c r="D149" t="s">
+        <v>74</v>
+      </c>
+      <c r="E149" t="s">
+        <v>75</v>
+      </c>
+      <c r="F149" t="s">
+        <v>58</v>
+      </c>
+      <c r="G149" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" t="s">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s">
+        <v>46</v>
+      </c>
+      <c r="J149" t="s">
+        <v>62</v>
+      </c>
+      <c r="K149" t="s">
+        <v>62</v>
+      </c>
+      <c r="L149" t="s">
+        <v>32</v>
+      </c>
+      <c r="M149" t="s">
+        <v>33</v>
+      </c>
+      <c r="N149" t="s">
+        <v>34</v>
+      </c>
+      <c r="O149" t="s">
+        <v>35</v>
+      </c>
+      <c r="P149" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>49</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" t="s">
+        <v>219</v>
+      </c>
+      <c r="B150" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" t="s">
+        <v>73</v>
+      </c>
+      <c r="D150" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" t="s">
+        <v>75</v>
+      </c>
+      <c r="F150" t="s">
+        <v>58</v>
+      </c>
+      <c r="G150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" t="s">
+        <v>60</v>
+      </c>
+      <c r="I150" t="s">
+        <v>46</v>
+      </c>
+      <c r="J150" t="s">
+        <v>62</v>
+      </c>
+      <c r="K150" t="s">
+        <v>62</v>
+      </c>
+      <c r="L150" t="s">
+        <v>32</v>
+      </c>
+      <c r="M150" t="s">
+        <v>33</v>
+      </c>
+      <c r="N150" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" t="s">
+        <v>35</v>
+      </c>
+      <c r="P150" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>49</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U150" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" t="s">
+        <v>220</v>
+      </c>
+      <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" t="s">
+        <v>74</v>
+      </c>
+      <c r="E151" t="s">
+        <v>75</v>
+      </c>
+      <c r="F151" t="s">
+        <v>58</v>
+      </c>
+      <c r="G151" t="s">
+        <v>59</v>
+      </c>
+      <c r="H151" t="s">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151" t="s">
+        <v>62</v>
+      </c>
+      <c r="K151" t="s">
+        <v>62</v>
+      </c>
+      <c r="L151" t="s">
+        <v>32</v>
+      </c>
+      <c r="M151" t="s">
+        <v>33</v>
+      </c>
+      <c r="N151" t="s">
+        <v>34</v>
+      </c>
+      <c r="O151" t="s">
+        <v>35</v>
+      </c>
+      <c r="P151" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>49</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U151" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
+      <c r="A152" t="s">
+        <v>221</v>
+      </c>
+      <c r="B152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" t="s">
+        <v>74</v>
+      </c>
+      <c r="E152" t="s">
+        <v>75</v>
+      </c>
+      <c r="F152" t="s">
+        <v>58</v>
+      </c>
+      <c r="G152" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" t="s">
+        <v>45</v>
+      </c>
+      <c r="I152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J152" t="s">
+        <v>62</v>
+      </c>
+      <c r="K152" t="s">
+        <v>62</v>
+      </c>
+      <c r="L152" t="s">
+        <v>32</v>
+      </c>
+      <c r="M152" t="s">
+        <v>33</v>
+      </c>
+      <c r="N152" t="s">
+        <v>34</v>
+      </c>
+      <c r="O152" t="s">
+        <v>35</v>
+      </c>
+      <c r="P152" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>49</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U152" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" t="s">
+        <v>222</v>
+      </c>
+      <c r="B153" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E153" t="s">
+        <v>75</v>
+      </c>
+      <c r="F153" t="s">
+        <v>58</v>
+      </c>
+      <c r="G153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" t="s">
+        <v>60</v>
+      </c>
+      <c r="I153" t="s">
+        <v>52</v>
+      </c>
+      <c r="J153" t="s">
+        <v>62</v>
+      </c>
+      <c r="K153" t="s">
+        <v>62</v>
+      </c>
+      <c r="L153" t="s">
+        <v>32</v>
+      </c>
+      <c r="M153" t="s">
+        <v>33</v>
+      </c>
+      <c r="N153" t="s">
+        <v>34</v>
+      </c>
+      <c r="O153" t="s">
+        <v>35</v>
+      </c>
+      <c r="P153" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>49</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U153" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
+      <c r="A154" t="s">
+        <v>223</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154" t="s">
+        <v>74</v>
+      </c>
+      <c r="E154" t="s">
+        <v>75</v>
+      </c>
+      <c r="F154" t="s">
+        <v>58</v>
+      </c>
+      <c r="G154" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154" t="s">
+        <v>45</v>
+      </c>
+      <c r="I154" t="s">
+        <v>52</v>
+      </c>
+      <c r="J154" t="s">
+        <v>62</v>
+      </c>
+      <c r="K154" t="s">
+        <v>62</v>
+      </c>
+      <c r="L154" t="s">
+        <v>32</v>
+      </c>
+      <c r="M154" t="s">
+        <v>33</v>
+      </c>
+      <c r="N154" t="s">
+        <v>34</v>
+      </c>
+      <c r="O154" t="s">
+        <v>35</v>
+      </c>
+      <c r="P154" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>49</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U154" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" s="1" customFormat="1">
+      <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J155" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="K155" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M104" s="1" t="s">
+      <c r="M155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="N155" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O104" s="1" t="s">
+      <c r="O155" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="P155" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q104" s="1" t="s">
+      <c r="Q155" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R104" s="1" t="s">
+      <c r="R155" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S104" s="1" t="s">
+      <c r="S155" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T104" s="1" t="s">
+      <c r="T155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U104" s="1" t="s">
+      <c r="U155" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="1" customFormat="1">
-      <c r="Q105" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="R105" s="1">
+    <row r="156" spans="1:21" s="1" customFormat="1">
+      <c r="Q156" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R156" s="1">
         <v>250.514</v>
       </c>
-      <c r="S105" s="1">
+      <c r="S156" s="1">
         <v>-99.48650000000001</v>
       </c>
-      <c r="T105" s="1">
+      <c r="T156" s="1">
         <v>-17.5226</v>
       </c>
-      <c r="U105" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" s="1" customFormat="1">
-      <c r="Q106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R106" s="1">
+      <c r="U156" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" s="1" customFormat="1">
+      <c r="Q157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R157" s="1">
         <v>267.523</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S157" s="1">
         <v>-47.4774</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T157" s="1">
         <v>-0.513522</v>
       </c>
-      <c r="U106" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" s="1" customFormat="1">
-      <c r="Q107" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" s="1" customFormat="1">
-      <c r="Q108" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" s="1" customFormat="1">
-      <c r="Q109" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" s="1" customFormat="1">
-      <c r="Q110" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" s="1" customFormat="1">
-      <c r="Q111" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="R111" s="1">
+      <c r="U157" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" s="1" customFormat="1">
+      <c r="Q158" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" s="1" customFormat="1">
+      <c r="Q159" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" s="1" customFormat="1">
+      <c r="Q160" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="17:21" s="1" customFormat="1">
+      <c r="Q161" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="17:21" s="1" customFormat="1">
+      <c r="Q162" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R162" s="1">
         <v>256.26</v>
       </c>
-      <c r="S111" s="1">
+      <c r="S162" s="1">
         <v>-70.40703000000001</v>
       </c>
-      <c r="T111" s="1">
+      <c r="T162" s="1">
         <v>-6.259639</v>
       </c>
-      <c r="U111" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" s="1" customFormat="1">
-      <c r="Q112" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="R112" s="1">
+      <c r="U162" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="17:21" s="1" customFormat="1">
+      <c r="Q163" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R163" s="1">
         <v>7.964692</v>
       </c>
-      <c r="S112" s="1">
+      <c r="S163" s="1">
         <v>21.673362</v>
       </c>
-      <c r="T112" s="1">
+      <c r="T163" s="1">
         <v>7.964666</v>
       </c>
-      <c r="U112" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="17:21" s="1" customFormat="1">
-      <c r="Q113" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="R113" s="1">
+      <c r="U163" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="17:21" s="1" customFormat="1">
+      <c r="Q164" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R164" s="1">
         <v>3.108051</v>
       </c>
-      <c r="S113" s="1">
+      <c r="S164" s="1">
         <v>30.782952</v>
       </c>
-      <c r="T113" s="1">
+      <c r="T164" s="1">
         <v>127.238424</v>
       </c>
-      <c r="U113" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="17:21" s="1" customFormat="1"/>
+      <c r="U164" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="17:21" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="233">
   <si>
     <t>Process</t>
   </si>
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>250.514</v>
+        <v>250.537</v>
       </c>
       <c r="S2">
-        <v>-99.48650000000001</v>
+        <v>-99.4627</v>
       </c>
       <c r="T2">
-        <v>-0.513522</v>
+        <v>-0.537316</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>37</v>
@@ -1389,13 +1389,13 @@
         <v>63</v>
       </c>
       <c r="R5">
-        <v>250.743</v>
+        <v>250.766</v>
       </c>
       <c r="S5">
-        <v>-64.2572</v>
+        <v>-64.23399999999999</v>
       </c>
       <c r="T5">
-        <v>-0.742795</v>
+        <v>-0.765962</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>37</v>
@@ -1453,14 +1453,14 @@
       <c r="Q6" t="s">
         <v>63</v>
       </c>
-      <c r="R6">
-        <v>267.523</v>
-      </c>
-      <c r="S6">
-        <v>-47.4774</v>
-      </c>
-      <c r="T6">
-        <v>-17.5226</v>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>37</v>
@@ -11156,13 +11156,13 @@
         <v>224</v>
       </c>
       <c r="R156" s="1">
-        <v>250.514</v>
+        <v>250.537</v>
       </c>
       <c r="S156" s="1">
-        <v>-99.48650000000001</v>
+        <v>-99.4627</v>
       </c>
       <c r="T156" s="1">
-        <v>-17.5226</v>
+        <v>-0.765962</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>50</v>
@@ -11173,13 +11173,13 @@
         <v>225</v>
       </c>
       <c r="R157" s="1">
-        <v>267.523</v>
+        <v>250.766</v>
       </c>
       <c r="S157" s="1">
-        <v>-47.4774</v>
+        <v>-64.23399999999999</v>
       </c>
       <c r="T157" s="1">
-        <v>-0.513522</v>
+        <v>-0.537316</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>50</v>
@@ -11210,13 +11210,13 @@
         <v>230</v>
       </c>
       <c r="R162" s="1">
-        <v>256.26</v>
+        <v>250.6515</v>
       </c>
       <c r="S162" s="1">
-        <v>-70.40703000000001</v>
+        <v>-81.84835</v>
       </c>
       <c r="T162" s="1">
-        <v>-6.259639</v>
+        <v>-0.651639</v>
       </c>
       <c r="U162" s="1" t="s">
         <v>50</v>
@@ -11227,13 +11227,13 @@
         <v>231</v>
       </c>
       <c r="R163" s="1">
-        <v>7.964692</v>
+        <v>0.1145</v>
       </c>
       <c r="S163" s="1">
-        <v>21.673362</v>
+        <v>17.61435</v>
       </c>
       <c r="T163" s="1">
-        <v>7.964666</v>
+        <v>0.114323</v>
       </c>
       <c r="U163" s="1" t="s">
         <v>50</v>
@@ -11244,13 +11244,13 @@
         <v>232</v>
       </c>
       <c r="R164" s="1">
-        <v>3.108051</v>
+        <v>0.045681</v>
       </c>
       <c r="S164" s="1">
-        <v>30.782952</v>
+        <v>21.520715</v>
       </c>
       <c r="T164" s="1">
-        <v>127.238424</v>
+        <v>17.543916</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>50</v>

--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -163,7 +163,7 @@
     <t>0.77</t>
   </si>
   <si>
-    <t>rcbest_ccbest</t>
+    <t>rcbest_ccbest_t</t>
   </si>
   <si>
     <t>n/a</t>
@@ -205,7 +205,7 @@
     <t>0.63</t>
   </si>
   <si>
-    <t>rcworst_ccworst</t>
+    <t>rcworst_ccworst_t</t>
   </si>
   <si>
     <t>tsmc2p (4)</t>
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>250.537</v>
+        <v>250.209</v>
       </c>
       <c r="S2">
-        <v>-99.4627</v>
+        <v>-99.791</v>
       </c>
       <c r="T2">
-        <v>-0.537316</v>
+        <v>-0.209025</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>37</v>
@@ -1389,13 +1389,13 @@
         <v>63</v>
       </c>
       <c r="R5">
-        <v>250.766</v>
+        <v>250.489</v>
       </c>
       <c r="S5">
-        <v>-64.23399999999999</v>
+        <v>-64.51139999999999</v>
       </c>
       <c r="T5">
-        <v>-0.765962</v>
+        <v>-0.488556</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>37</v>
@@ -11156,13 +11156,13 @@
         <v>224</v>
       </c>
       <c r="R156" s="1">
-        <v>250.537</v>
+        <v>250.209</v>
       </c>
       <c r="S156" s="1">
-        <v>-99.4627</v>
+        <v>-99.791</v>
       </c>
       <c r="T156" s="1">
-        <v>-0.765962</v>
+        <v>-0.488556</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>50</v>
@@ -11173,13 +11173,13 @@
         <v>225</v>
       </c>
       <c r="R157" s="1">
-        <v>250.766</v>
+        <v>250.489</v>
       </c>
       <c r="S157" s="1">
-        <v>-64.23399999999999</v>
+        <v>-64.51139999999999</v>
       </c>
       <c r="T157" s="1">
-        <v>-0.537316</v>
+        <v>-0.209025</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>50</v>
@@ -11210,13 +11210,13 @@
         <v>230</v>
       </c>
       <c r="R162" s="1">
-        <v>250.6515</v>
+        <v>250.349</v>
       </c>
       <c r="S162" s="1">
-        <v>-81.84835</v>
+        <v>-82.1512</v>
       </c>
       <c r="T162" s="1">
-        <v>-0.651639</v>
+        <v>-0.3487905</v>
       </c>
       <c r="U162" s="1" t="s">
         <v>50</v>
@@ -11227,13 +11227,13 @@
         <v>231</v>
       </c>
       <c r="R163" s="1">
-        <v>0.1145</v>
+        <v>0.14</v>
       </c>
       <c r="S163" s="1">
-        <v>17.61435</v>
+        <v>17.6398</v>
       </c>
       <c r="T163" s="1">
-        <v>0.114323</v>
+        <v>0.139765</v>
       </c>
       <c r="U163" s="1" t="s">
         <v>50</v>
@@ -11244,13 +11244,13 @@
         <v>232</v>
       </c>
       <c r="R164" s="1">
-        <v>0.045681</v>
+        <v>0.055922</v>
       </c>
       <c r="S164" s="1">
-        <v>21.520715</v>
+        <v>21.472358</v>
       </c>
       <c r="T164" s="1">
-        <v>17.543916</v>
+        <v>40.071332</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>50</v>

--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="233">
   <si>
     <t>Process</t>
   </si>
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>250.209</v>
+        <v>249.881</v>
       </c>
       <c r="S2">
-        <v>-99.791</v>
+        <v>-100.119</v>
       </c>
       <c r="T2">
-        <v>-0.209025</v>
+        <v>-0.118839</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>37</v>
@@ -1389,13 +1389,13 @@
         <v>63</v>
       </c>
       <c r="R5">
-        <v>250.489</v>
+        <v>249.807</v>
       </c>
       <c r="S5">
-        <v>-64.51139999999999</v>
+        <v>-65.19280000000001</v>
       </c>
       <c r="T5">
-        <v>-0.488556</v>
+        <v>-0.192797</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>37</v>
@@ -1453,14 +1453,14 @@
       <c r="Q6" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>37</v>
+      <c r="R6">
+        <v>249.81</v>
+      </c>
+      <c r="S6">
+        <v>-65.18980000000001</v>
+      </c>
+      <c r="T6">
+        <v>-0.189816</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>37</v>
@@ -11156,13 +11156,13 @@
         <v>224</v>
       </c>
       <c r="R156" s="1">
-        <v>250.209</v>
+        <v>249.807</v>
       </c>
       <c r="S156" s="1">
-        <v>-99.791</v>
+        <v>-100.119</v>
       </c>
       <c r="T156" s="1">
-        <v>-0.488556</v>
+        <v>-0.192797</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>50</v>
@@ -11173,13 +11173,13 @@
         <v>225</v>
       </c>
       <c r="R157" s="1">
-        <v>250.489</v>
+        <v>249.881</v>
       </c>
       <c r="S157" s="1">
-        <v>-64.51139999999999</v>
+        <v>-65.18980000000001</v>
       </c>
       <c r="T157" s="1">
-        <v>-0.209025</v>
+        <v>-0.118839</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>50</v>
@@ -11210,13 +11210,13 @@
         <v>230</v>
       </c>
       <c r="R162" s="1">
-        <v>250.349</v>
+        <v>249.8327</v>
       </c>
       <c r="S162" s="1">
-        <v>-82.1512</v>
+        <v>-76.83387</v>
       </c>
       <c r="T162" s="1">
-        <v>-0.3487905</v>
+        <v>-0.1671507</v>
       </c>
       <c r="U162" s="1" t="s">
         <v>50</v>
@@ -11227,13 +11227,13 @@
         <v>231</v>
       </c>
       <c r="R163" s="1">
-        <v>0.14</v>
+        <v>0.034199</v>
       </c>
       <c r="S163" s="1">
-        <v>17.6398</v>
+        <v>16.465076</v>
       </c>
       <c r="T163" s="1">
-        <v>0.139765</v>
+        <v>0.034183</v>
       </c>
       <c r="U163" s="1" t="s">
         <v>50</v>
@@ -11244,13 +11244,13 @@
         <v>232</v>
       </c>
       <c r="R164" s="1">
-        <v>0.055922</v>
+        <v>0.013689</v>
       </c>
       <c r="S164" s="1">
-        <v>21.472358</v>
+        <v>21.42945</v>
       </c>
       <c r="T164" s="1">
-        <v>40.071332</v>
+        <v>20.450408</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>50</v>

--- a/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_tsmc2p_meas.xlsx
@@ -163,7 +163,7 @@
     <t>0.77</t>
   </si>
   <si>
-    <t>rcbest_ccbest_t</t>
+    <t>rcbest_ccbest</t>
   </si>
   <si>
     <t>n/a</t>
@@ -205,7 +205,7 @@
     <t>0.63</t>
   </si>
   <si>
-    <t>rcworst_ccworst_t</t>
+    <t>rcworst_ccworst</t>
   </si>
   <si>
     <t>tsmc2p (4)</t>
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>249.881</v>
+        <v>249.629</v>
       </c>
       <c r="S2">
-        <v>-100.119</v>
+        <v>-100.371</v>
       </c>
       <c r="T2">
-        <v>-0.118839</v>
+        <v>-0.370519</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>37</v>
@@ -1389,13 +1389,13 @@
         <v>63</v>
       </c>
       <c r="R5">
-        <v>249.807</v>
+        <v>249.581</v>
       </c>
       <c r="S5">
-        <v>-65.19280000000001</v>
+        <v>-65.4191</v>
       </c>
       <c r="T5">
-        <v>-0.192797</v>
+        <v>-0.419121</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>37</v>
@@ -1454,13 +1454,13 @@
         <v>63</v>
       </c>
       <c r="R6">
-        <v>249.81</v>
+        <v>249.66</v>
       </c>
       <c r="S6">
-        <v>-65.18980000000001</v>
+        <v>-65.3402</v>
       </c>
       <c r="T6">
-        <v>-0.189816</v>
+        <v>-0.340199</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>37</v>
@@ -11156,13 +11156,13 @@
         <v>224</v>
       </c>
       <c r="R156" s="1">
-        <v>249.807</v>
+        <v>249.581</v>
       </c>
       <c r="S156" s="1">
-        <v>-100.119</v>
+        <v>-100.371</v>
       </c>
       <c r="T156" s="1">
-        <v>-0.192797</v>
+        <v>-0.419121</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>50</v>
@@ -11173,13 +11173,13 @@
         <v>225</v>
       </c>
       <c r="R157" s="1">
-        <v>249.881</v>
+        <v>249.66</v>
       </c>
       <c r="S157" s="1">
-        <v>-65.18980000000001</v>
+        <v>-65.3402</v>
       </c>
       <c r="T157" s="1">
-        <v>-0.118839</v>
+        <v>-0.340199</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>50</v>
@@ -11210,13 +11210,13 @@
         <v>230</v>
       </c>
       <c r="R162" s="1">
-        <v>249.8327</v>
+        <v>249.6233</v>
       </c>
       <c r="S162" s="1">
-        <v>-76.83387</v>
+        <v>-77.04343</v>
       </c>
       <c r="T162" s="1">
-        <v>-0.1671507</v>
+        <v>-0.376613</v>
       </c>
       <c r="U162" s="1" t="s">
         <v>50</v>
@@ -11227,13 +11227,13 @@
         <v>231</v>
       </c>
       <c r="R163" s="1">
-        <v>0.034199</v>
+        <v>0.0325</v>
       </c>
       <c r="S163" s="1">
-        <v>16.465076</v>
+        <v>16.495112</v>
       </c>
       <c r="T163" s="1">
-        <v>0.034183</v>
+        <v>0.032507</v>
       </c>
       <c r="U163" s="1" t="s">
         <v>50</v>
@@ -11244,13 +11244,13 @@
         <v>232</v>
       </c>
       <c r="R164" s="1">
-        <v>0.013689</v>
+        <v>0.01302</v>
       </c>
       <c r="S164" s="1">
-        <v>21.42945</v>
+        <v>21.410147</v>
       </c>
       <c r="T164" s="1">
-        <v>20.450408</v>
+        <v>8.631406999999999</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>50</v>
